--- a/analysis/participant_extractedmetrics/participant220.xlsx
+++ b/analysis/participant_extractedmetrics/participant220.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="77">
   <si>
     <t/>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>pre-gemini</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
   <si>
     <t>arg</t>
@@ -247,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -258,6 +261,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,12 +282,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,7 +1467,758 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>38.0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>181.0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>189.0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10342.61</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2102.12</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1167.62</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2102.12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>61665.59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2752.62</v>
+      </c>
+      <c r="J26" s="4">
+        <v>484.39</v>
+      </c>
+      <c r="K26" s="4">
+        <v>583.88</v>
+      </c>
+      <c r="L26" s="4">
+        <v>183.32</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="P26" s="4">
+        <v>80249.68</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>200.78</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>29.22</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="P27" s="4">
+        <v>38.03</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4">
+        <v>795.59</v>
+      </c>
+      <c r="C28" s="4">
+        <v>420.42</v>
+      </c>
+      <c r="D28" s="4">
+        <v>291.9</v>
+      </c>
+      <c r="E28" s="4">
+        <v>420.42</v>
+      </c>
+      <c r="F28" s="4">
+        <v>340.69</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4">
+        <v>344.08</v>
+      </c>
+      <c r="J28" s="4">
+        <v>242.2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>291.94</v>
+      </c>
+      <c r="L28" s="4">
+        <v>183.32</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="P28" s="4">
+        <v>424.6</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>200.78</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>350.32</v>
+      </c>
+      <c r="C29" s="4">
+        <v>350.32</v>
+      </c>
+      <c r="D29" s="4">
+        <v>350.32</v>
+      </c>
+      <c r="E29" s="4">
+        <v>350.32</v>
+      </c>
+      <c r="F29" s="4">
+        <v>200.19</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4">
+        <v>350.32</v>
+      </c>
+      <c r="J29" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="K29" s="4">
+        <v>350.32</v>
+      </c>
+      <c r="L29" s="4">
+        <v>183.32</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="P29" s="4">
+        <v>867.51</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>200.78</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1470,34 +2238,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
@@ -1506,73 +2274,73 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>12</v>
@@ -1584,46 +2352,46 @@
         <v>16</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>0</v>
@@ -2777,7 +3545,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2785,34 +3553,34 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>1</v>
@@ -2821,73 +3589,73 @@
         <v>2</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>12</v>
@@ -2899,46 +3667,46 @@
         <v>16</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BB12" s="1" t="s">
         <v>0</v>
@@ -4090,7 +4858,1248 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X24" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AT24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AV24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>23.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>135.0</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AH25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1785.19</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3637.09</v>
+      </c>
+      <c r="I26" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="J26" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="K26" s="4">
+        <v>450.43</v>
+      </c>
+      <c r="L26" s="4">
+        <v>8025.01</v>
+      </c>
+      <c r="M26" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="N26" s="4">
+        <v>216.95</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="4">
+        <v>967.57</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="4">
+        <v>51404.78</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="4">
+        <v>4037.44</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>4688.1</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>400.48</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>1601.59</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>116.75</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>500.61</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>37674.26</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>850.79</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="L27" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="4">
+        <v>39.08</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>28.64</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="AV27" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="AW27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
+        <v>892.59</v>
+      </c>
+      <c r="H28" s="4">
+        <v>606.18</v>
+      </c>
+      <c r="I28" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="J28" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="K28" s="4">
+        <v>225.22</v>
+      </c>
+      <c r="L28" s="4">
+        <v>348.91</v>
+      </c>
+      <c r="M28" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="N28" s="4">
+        <v>216.95</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="4">
+        <v>322.52</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="4">
+        <v>380.78</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X28" s="4">
+        <v>367.04</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>334.86</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>200.24</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>1601.59</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>116.75</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>250.3</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>376.74</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>425.4</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1601.59</v>
+      </c>
+      <c r="H29" s="4">
+        <v>450.48</v>
+      </c>
+      <c r="I29" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="J29" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="K29" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="L29" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="M29" s="4">
+        <v>283.61</v>
+      </c>
+      <c r="N29" s="4">
+        <v>216.95</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="4">
+        <v>100.13</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>166.85</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>1601.59</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>116.75</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>233.63</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>166.75</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>734.03</v>
+      </c>
+      <c r="AT29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>333.68</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="AW29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4110,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4125,19 +6134,19 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
@@ -4146,13 +6155,13 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -4167,26 +6176,52 @@
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -4268,6 +6303,32 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -4351,6 +6412,32 @@
       <c r="AA3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -4434,6 +6521,32 @@
       <c r="AA4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -4517,6 +6630,32 @@
       <c r="AA5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -4600,6 +6739,32 @@
       <c r="AA6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -4683,6 +6848,32 @@
       <c r="AA7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -4766,10 +6957,36 @@
       <c r="AA8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -4777,13 +6994,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
@@ -4792,19 +7009,19 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>5</v>
@@ -4813,13 +7030,13 @@
         <v>8</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>11</v>
@@ -4834,26 +7051,52 @@
         <v>15</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -4935,6 +7178,32 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -5018,6 +7287,32 @@
       <c r="AA15" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -5101,6 +7396,32 @@
       <c r="AA16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -5184,6 +7505,32 @@
       <c r="AA17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -5267,6 +7614,32 @@
       <c r="AA18" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -5350,6 +7723,32 @@
       <c r="AA19" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -5433,8 +7832,897 @@
       <c r="AA20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="4">
+        <v>135.0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="4">
+        <v>84.0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5622.62</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4638.28</v>
+      </c>
+      <c r="G27" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="H27" s="4">
+        <v>617.32</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3987.64</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="4">
+        <v>48881.57</v>
+      </c>
+      <c r="M27" s="4">
+        <v>5622.62</v>
+      </c>
+      <c r="N27" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="O27" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="P27" s="4">
+        <v>4638.28</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="4">
+        <v>24411.82</v>
+      </c>
+      <c r="U27" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0.14</v>
+      </c>
+      <c r="P28" s="4">
+        <v>3.85</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="4">
+        <v>20.26</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="4">
+        <v>562.26</v>
+      </c>
+      <c r="F29" s="4">
+        <v>773.05</v>
+      </c>
+      <c r="G29" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="H29" s="4">
+        <v>308.66</v>
+      </c>
+      <c r="I29" s="4">
+        <v>797.53</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="4">
+        <v>362.09</v>
+      </c>
+      <c r="M29" s="4">
+        <v>562.26</v>
+      </c>
+      <c r="N29" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="O29" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="P29" s="4">
+        <v>773.05</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="4">
+        <v>290.62</v>
+      </c>
+      <c r="U29" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="F30" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="G30" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="H30" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="I30" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="4">
+        <v>74.93</v>
+      </c>
+      <c r="M30" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="N30" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="O30" s="4">
+        <v>166.8</v>
+      </c>
+      <c r="P30" s="4">
+        <v>383.75</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="4">
+        <v>150.11</v>
+      </c>
+      <c r="U30" s="4">
+        <v>200.23</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>